--- a/biology/Botanique/Arc_forestier_du_Perche_d'Eure-et-Loir/Arc_forestier_du_Perche_d'Eure-et-Loir.xlsx
+++ b/biology/Botanique/Arc_forestier_du_Perche_d'Eure-et-Loir/Arc_forestier_du_Perche_d'Eure-et-Loir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arc_forestier_du_Perche_d%27Eure-et-Loir</t>
+          <t>Arc_forestier_du_Perche_d'Eure-et-Loir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site du réseau Natura 2000 arc forestier du Perche d'Eure-et-Loir est un site d'importance communautaire défini, au titre de la directive habitats, dans la partie du Perche situé en Eure-et-Loir.
-La création de cette zone spéciale de conservation a été effectuée par arrêté le 13 avril 2007[1].
+La création de cette zone spéciale de conservation a été effectuée par arrêté le 13 avril 2007.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arc_forestier_du_Perche_d%27Eure-et-Loir</t>
+          <t>Arc_forestier_du_Perche_d'Eure-et-Loir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La répartition des types d'habitats est la suivante :
 Forêts à feuilles caduques : 71%
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arc_forestier_du_Perche_d%27Eure-et-Loir</t>
+          <t>Arc_forestier_du_Perche_d'Eure-et-Loir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les communes concernées, pour tout ou partie de leur territoire, sont au nombre de quatorze :
 Champrond-en-Gâtine
